--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C70C3-D6D8-4A16-9D55-45B77CCE64E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57053C72-2278-4E4E-9C4F-21AB74D6E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>email</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>$2y$10$A.FxEE8Xl2XyniOJwcHEEO6CN24C429lpMSNszx8LWCn/Vke.whTa</t>
+  </si>
+  <si>
+    <t>2001-04-13</t>
+  </si>
+  <si>
+    <t>2001-03-30</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +439,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,8 +506,8 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
-        <v>36980</v>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -532,8 +538,8 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
-        <v>36994</v>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57053C72-2278-4E4E-9C4F-21AB74D6E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7642A788-86C3-46A4-83D1-924947131833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3408" yWindow="2160" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>email</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>2001-03-30</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>a6819437-95a5-4492-b682-cb13916d00ee</t>
+  </si>
+  <si>
+    <t>4397112e-12d9-49fc-b5b1-8b0b09ed54c7</t>
   </si>
 </sst>
 </file>
@@ -152,9 +161,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,124 +444,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="b">
+      <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="b">
+      <c r="K3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7642A788-86C3-46A4-83D1-924947131833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D844E6-E4DC-402B-9C01-745DAA26D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3408" yWindow="2160" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>email</t>
   </si>
@@ -59,9 +59,6 @@
     <t>dhieu@gmail.com</t>
   </si>
   <si>
-    <t>0375435891</t>
-  </si>
-  <si>
     <t>0375435892</t>
   </si>
   <si>
@@ -101,12 +98,6 @@
     <t>phone_verified</t>
   </si>
   <si>
-    <t>$2y$10$LGoFD1eEZMUX0BGxTHYuhe.aCMFScC4UxfW40SoQVaDVH7sFA1Ex2</t>
-  </si>
-  <si>
-    <t>$2y$10$A.FxEE8Xl2XyniOJwcHEEO6CN24C429lpMSNszx8LWCn/Vke.whTa</t>
-  </si>
-  <si>
     <t>2001-04-13</t>
   </si>
   <si>
@@ -120,13 +111,364 @@
   </si>
   <si>
     <t>4397112e-12d9-49fc-b5b1-8b0b09ed54c7</t>
+  </si>
+  <si>
+    <t>$2y$10$i.hdbNoqp4XnHkHj6DOPmeExyB6rWQrD1SP/blJA2Ufzq6V/nQns6</t>
+  </si>
+  <si>
+    <t>0375835891</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Q1, TP.HCM</t>
+  </si>
+  <si>
+    <t>Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Bình Thuận</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Nha Trang</t>
+  </si>
+  <si>
+    <t>Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Bình Định</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Quảng Nam</t>
+  </si>
+  <si>
+    <t>Cà Mau</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Tây Nguyên</t>
+  </si>
+  <si>
+    <t>774dfe1c-47ca-45cc-84be-4b3d3abaa99e</t>
+  </si>
+  <si>
+    <t>14ce6f93-eaa5-4500-9bff-db9f676d1b1f</t>
+  </si>
+  <si>
+    <t>27b190b7-354b-439a-99c3-299bb3808434</t>
+  </si>
+  <si>
+    <t>525a076f-6556-480f-a122-3e2f58ecc50b</t>
+  </si>
+  <si>
+    <t>e6a237e9-8ce7-4447-997d-dd976c0e3561</t>
+  </si>
+  <si>
+    <t>46b4694e-09b7-474e-b9f7-1cae2733e9aa</t>
+  </si>
+  <si>
+    <t>ec6a54a2-9adc-4c23-94e7-7c553532728c</t>
+  </si>
+  <si>
+    <t>20f13570-b642-4143-995b-22b00ca1e6ea</t>
+  </si>
+  <si>
+    <t>d4bf29e5-519c-4046-9104-80643fad934f</t>
+  </si>
+  <si>
+    <t>536ece1c-7343-4b5a-816a-6c5b4580f5f2</t>
+  </si>
+  <si>
+    <t>cdb7912f-3335-40d2-8e07-f29312d15d40</t>
+  </si>
+  <si>
+    <t>8d08bac1-af50-4f6c-bc7a-f1cac86fc729</t>
+  </si>
+  <si>
+    <t>27fcf2c4-0b71-4f96-9829-7ef8323df257</t>
+  </si>
+  <si>
+    <t>bac41968-df10-42a8-9001-11dc5063ae07</t>
+  </si>
+  <si>
+    <t>549cab5a-061c-42d7-b220-0986dc647cf5</t>
+  </si>
+  <si>
+    <t>fb48e907-bed6-43a8-979c-31ccafa59cc7</t>
+  </si>
+  <si>
+    <t>04f4b75b-eced-4036-a76c-446b9f1acd5c</t>
+  </si>
+  <si>
+    <t>0945692115</t>
+  </si>
+  <si>
+    <t>0987415262</t>
+  </si>
+  <si>
+    <t>0744965913</t>
+  </si>
+  <si>
+    <t>0168546319</t>
+  </si>
+  <si>
+    <t>0164461389</t>
+  </si>
+  <si>
+    <t>0168543265</t>
+  </si>
+  <si>
+    <t>0369256132</t>
+  </si>
+  <si>
+    <t>0316461638</t>
+  </si>
+  <si>
+    <t>0398856135</t>
+  </si>
+  <si>
+    <t>0846351686</t>
+  </si>
+  <si>
+    <t>0965498137</t>
+  </si>
+  <si>
+    <t>0362113549</t>
+  </si>
+  <si>
+    <t>0364816398</t>
+  </si>
+  <si>
+    <t>0361326841</t>
+  </si>
+  <si>
+    <t>0366987454</t>
+  </si>
+  <si>
+    <t>0366441521</t>
+  </si>
+  <si>
+    <t>0987461351</t>
+  </si>
+  <si>
+    <t>Trần Trung Kiên</t>
+  </si>
+  <si>
+    <t>tkien@gmail.com</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/23-5657.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/21-9015.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/20-56.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/2-9732.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/17-5249.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/15889244988681057278354.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/15319063_1870502259827840_8901988026005563692_n.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/15-9133.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/14-6914.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/12-8462.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/100_31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/1-8734.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a16.jpg</t>
+  </si>
+  <si>
+    <t>tadran4@networksolutions.com</t>
+  </si>
+  <si>
+    <t>atwist5@unicef.org</t>
+  </si>
+  <si>
+    <t>ksign6@wufoo.com</t>
+  </si>
+  <si>
+    <t>btregona7@vimeo.com</t>
+  </si>
+  <si>
+    <t>rdi8@goo.gl</t>
+  </si>
+  <si>
+    <t>mtheze9@redcross.org</t>
+  </si>
+  <si>
+    <t>jennalsa@soundcloud.com</t>
+  </si>
+  <si>
+    <t>lphoebeb@boston.com</t>
+  </si>
+  <si>
+    <t>trablenc@thetimes.co.uk</t>
+  </si>
+  <si>
+    <t>pbrodheadd@drupal.org</t>
+  </si>
+  <si>
+    <t>gbonellee@theglobeandmail.com</t>
+  </si>
+  <si>
+    <t>gjacklinf@bandcamp.com</t>
+  </si>
+  <si>
+    <t>jdug@noaa.gov</t>
+  </si>
+  <si>
+    <t>gvescovoh@gov.uk</t>
+  </si>
+  <si>
+    <t>thoundsoni@e-recht24.de</t>
+  </si>
+  <si>
+    <t>malbasinyj@cam.ac.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lãnh Hữu Châu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngũ Hùng Dũng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai Ðức Kiên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cáp Duy Hoàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thang Thắng Lợi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biện An Nguyên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mùa Thế Phương </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hà Chí Sơn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sầm Khải Tuấn </t>
+  </si>
+  <si>
+    <t>Hồng Bảo Phương</t>
+  </si>
+  <si>
+    <t>Bình Diên Vỹ</t>
+  </si>
+  <si>
+    <t>Cù Hồng Hoa</t>
+  </si>
+  <si>
+    <t>Đường Thanh Nguyên</t>
+  </si>
+  <si>
+    <t>Phi Thúy My</t>
+  </si>
+  <si>
+    <t>Công Trúc Mai</t>
+  </si>
+  <si>
+    <t>Giả Mai Thanh</t>
+  </si>
+  <si>
+    <t>2001-04-14</t>
+  </si>
+  <si>
+    <t>2001-04-15</t>
+  </si>
+  <si>
+    <t>2001-04-16</t>
+  </si>
+  <si>
+    <t>2001-04-17</t>
+  </si>
+  <si>
+    <t>2001-04-18</t>
+  </si>
+  <si>
+    <t>2001-04-19</t>
+  </si>
+  <si>
+    <t>2001-04-20</t>
+  </si>
+  <si>
+    <t>2001-04-21</t>
+  </si>
+  <si>
+    <t>2001-04-22</t>
+  </si>
+  <si>
+    <t>2001-04-23</t>
+  </si>
+  <si>
+    <t>2001-04-24</t>
+  </si>
+  <si>
+    <t>2001-04-25</t>
+  </si>
+  <si>
+    <t>2001-04-26</t>
+  </si>
+  <si>
+    <t>2001-04-27</t>
+  </si>
+  <si>
+    <t>2001-04-28</t>
+  </si>
+  <si>
+    <t>2001-04-29</t>
+  </si>
+  <si>
+    <t>2001-04-30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +480,24 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,8 +521,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,28 +809,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -477,54 +843,54 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -535,31 +901,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -568,7 +934,614 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
   </hyperlinks>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D844E6-E4DC-402B-9C01-745DAA26D8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF409D-CF2D-4EC2-A208-1CE8CECAE1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,18 +483,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,13 +509,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,15 +792,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
@@ -1529,17 +1512,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF409D-CF2D-4EC2-A208-1CE8CECAE1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F87F5-B9DD-4124-87FF-6B6353CAD70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F87F5-B9DD-4124-87FF-6B6353CAD70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C7BE1-2711-46A9-83A3-BC02D7168C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,15 +224,6 @@
     <t>0744965913</t>
   </si>
   <si>
-    <t>0168546319</t>
-  </si>
-  <si>
-    <t>0164461389</t>
-  </si>
-  <si>
-    <t>0168543265</t>
-  </si>
-  <si>
     <t>0369256132</t>
   </si>
   <si>
@@ -462,6 +453,15 @@
   </si>
   <si>
     <t>2001-04-30</t>
+  </si>
+  <si>
+    <t>0368546319</t>
+  </si>
+  <si>
+    <t>0368543265</t>
+  </si>
+  <si>
+    <t>0564461389</t>
   </si>
 </sst>
 </file>
@@ -509,8 +509,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +796,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +923,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
@@ -931,7 +932,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -940,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -957,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
@@ -966,7 +967,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -975,7 +976,7 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
         <v>30</v>
@@ -992,7 +993,7 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -1001,16 +1002,16 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -1027,25 +1028,25 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
+        <v>92</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
@@ -1062,25 +1063,25 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
@@ -1097,25 +1098,25 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
         <v>40</v>
@@ -1132,25 +1133,25 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -1167,25 +1168,25 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -1202,25 +1203,25 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
         <v>31</v>
@@ -1237,25 +1238,25 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
@@ -1272,25 +1273,25 @@
         <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I14" t="s">
         <v>29</v>
@@ -1307,25 +1308,25 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
         <v>34</v>
@@ -1342,25 +1343,25 @@
         <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
@@ -1377,25 +1378,25 @@
         <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
         <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I17" t="s">
         <v>33</v>
@@ -1412,25 +1413,25 @@
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -1447,25 +1448,25 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
         <v>41</v>
@@ -1482,25 +1483,25 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0C7BE1-2711-46A9-83A3-BC02D7168C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82314513-CD3B-4B75-89C7-6B5AD37E96D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
   <si>
     <t>email</t>
   </si>
@@ -44,12 +44,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/0b2ff7a1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/25-3545.jpg</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
@@ -263,51 +257,6 @@
     <t>tkien@gmail.com</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/23-5657.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/21-9015.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/20-56.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/2-9732.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/17-5249.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/15889244988681057278354.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/15319063_1870502259827840_8901988026005563692_n.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/15-9133.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/14-6914.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/12-8462.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/100_31.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/1-8734.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a16.jpg</t>
-  </si>
-  <si>
     <t>tadran4@networksolutions.com</t>
   </si>
   <si>
@@ -462,13 +411,70 @@
   </si>
   <si>
     <t>0564461389</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/19.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/m.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/2fd41a6f90447c122.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/120f0f686054202c5.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/4383d8690a1effcdc.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/3786139eda2395aa8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/5633ec145d103104c.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/62fa1248e58a80ff8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/83919c6577ba64f99.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/00f0f2f84fdcd394d.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/734089bdb558cd768.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/10adc97c5193d1efe9.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/12.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/914733d63e3c87946.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/14.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/114be33fec760d778c.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/13.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/16.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +489,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,15 +519,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C477C555-D1DC-4E1A-9325-8407133798E8}"/>
   </cellStyles>
@@ -793,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,66 +832,66 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -885,31 +902,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -920,31 +937,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -955,31 +972,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>106</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>123</v>
-      </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -990,31 +1007,31 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -1025,31 +1042,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -1060,31 +1077,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1095,31 +1112,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>78</v>
+        <v>91</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1130,31 +1147,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
       <c r="H10" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1165,31 +1182,31 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1200,31 +1217,31 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -1235,31 +1252,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1270,31 +1287,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
         <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1305,31 +1322,31 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1340,31 +1357,31 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1375,31 +1392,31 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1410,31 +1427,31 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1445,31 +1462,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1480,31 +1497,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
       <c r="H20" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1512,13 +1529,26 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{0298D4FD-6525-499D-939F-F4A7BA0989C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82314513-CD3B-4B75-89C7-6B5AD37E96D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DDEA7-AEB6-4C52-BD06-7A4B0C138F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,61 +413,61 @@
     <t>0564461389</t>
   </si>
   <si>
+    <t>https://img.upanh.tv/2023/06/19/16.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/14.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/12.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/114be33fec760d778c.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/13.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/10adc97c5193d1efe9.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/914733d63e3c87946.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/00f0f2f84fdcd394d.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/734089bdb558cd768.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/83919c6577ba64f99.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/62fa1248e58a80ff8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/5633ec145d103104c.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/3786139eda2395aa8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/120f0f686054202c5.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/4383d8690a1effcdc.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/m.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/2fd41a6f90447c122.jpg</t>
+  </si>
+  <si>
     <t>https://img.upanh.tv/2023/06/19/19.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/f.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/m.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/2fd41a6f90447c122.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/120f0f686054202c5.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/4383d8690a1effcdc.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/3786139eda2395aa8.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/5633ec145d103104c.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/62fa1248e58a80ff8.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/83919c6577ba64f99.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/00f0f2f84fdcd394d.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/734089bdb558cd768.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/10adc97c5193d1efe9.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/12.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/914733d63e3c87946.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/14.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/114be33fec760d778c.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/13.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/16.jpg</t>
   </si>
 </sst>
 </file>
@@ -810,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -917,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -952,7 +952,7 @@
         <v>71</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -987,7 +987,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1022,7 +1022,7 @@
         <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1057,7 +1057,7 @@
         <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1092,7 +1092,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1162,7 +1162,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -1232,7 +1232,7 @@
         <v>93</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>101</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -1302,7 +1302,7 @@
         <v>102</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -1372,7 +1372,7 @@
         <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1407,7 +1407,7 @@
         <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -1442,7 +1442,7 @@
         <v>96</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1477,7 +1477,7 @@
         <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1512,7 +1512,7 @@
         <v>103</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1529,24 +1529,12 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{0298D4FD-6525-499D-939F-F4A7BA0989C5}"/>
+    <hyperlink ref="F15" r:id="rId2" xr:uid="{8859CD17-FB76-4D62-BBB6-489C66932224}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82314513-CD3B-4B75-89C7-6B5AD37E96D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE38FF0-DD0A-443D-9EDD-27C655F25B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,68 +413,68 @@
     <t>0564461389</t>
   </si>
   <si>
+    <t>https://img.upanh.tv/2023/06/19/16.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/14.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/12.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/114be33fec760d778c.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/13.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/10adc97c5193d1efe9.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/914733d63e3c87946.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/00f0f2f84fdcd394d.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/734089bdb558cd768.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/83919c6577ba64f99.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/62fa1248e58a80ff8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/5633ec145d103104c.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/3786139eda2395aa8.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/120f0f686054202c5.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/4383d8690a1effcdc.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/m.jpg</t>
+  </si>
+  <si>
+    <t>https://img.upanh.tv/2023/06/19/2fd41a6f90447c122.jpg</t>
+  </si>
+  <si>
     <t>https://img.upanh.tv/2023/06/19/19.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/f.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/m.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/2fd41a6f90447c122.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/120f0f686054202c5.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/4383d8690a1effcdc.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/3786139eda2395aa8.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/5633ec145d103104c.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/62fa1248e58a80ff8.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/83919c6577ba64f99.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/00f0f2f84fdcd394d.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/734089bdb558cd768.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/10adc97c5193d1efe9.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/12.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/914733d63e3c87946.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/14.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/114be33fec760d778c.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/13.jpg</t>
-  </si>
-  <si>
-    <t>https://img.upanh.tv/2023/06/19/16.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +497,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,10 +530,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -810,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -916,8 +923,8 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>140</v>
+      <c r="F3" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -951,8 +958,8 @@
       <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>138</v>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -986,8 +993,8 @@
       <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>141</v>
+      <c r="F5" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1021,8 +1028,8 @@
       <c r="E6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>142</v>
+      <c r="F6" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -1056,8 +1063,8 @@
       <c r="E7" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>137</v>
+      <c r="F7" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -1091,8 +1098,8 @@
       <c r="E8" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>139</v>
+      <c r="F8" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
@@ -1126,8 +1133,8 @@
       <c r="E9" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>135</v>
+      <c r="F9" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -1161,8 +1168,8 @@
       <c r="E10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>136</v>
+      <c r="F10" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
@@ -1196,7 +1203,7 @@
       <c r="E11" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>134</v>
       </c>
       <c r="G11" t="s">
@@ -1231,8 +1238,8 @@
       <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>133</v>
+      <c r="F12" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -1266,8 +1273,8 @@
       <c r="E13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>132</v>
+      <c r="F13" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
@@ -1301,8 +1308,8 @@
       <c r="E14" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>131</v>
+      <c r="F14" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
@@ -1337,7 +1344,7 @@
         <v>104</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
@@ -1371,8 +1378,8 @@
       <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
+      <c r="F16" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1406,8 +1413,8 @@
       <c r="E17" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>126</v>
+      <c r="F17" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -1441,8 +1448,8 @@
       <c r="E18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>127</v>
+      <c r="F18" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1476,8 +1483,8 @@
       <c r="E19" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>128</v>
+      <c r="F19" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1511,8 +1518,8 @@
       <c r="E20" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>125</v>
+      <c r="F20" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1529,26 +1536,13 @@
       <c r="K20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
-    <hyperlink ref="F15" r:id="rId2" xr:uid="{0298D4FD-6525-499D-939F-F4A7BA0989C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/models/data/user.xlsx
+++ b/src/models/data/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37DDEA7-AEB6-4C52-BD06-7A4B0C138F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CFD460-A0FA-4922-A2A5-02480809F5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>email</t>
   </si>
@@ -468,6 +468,69 @@
   </si>
   <si>
     <t>https://img.upanh.tv/2023/06/19/19.jpg</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>2023-04-16T03:42:46.836Z</t>
+  </si>
+  <si>
+    <t>2023-04-15T21:32:21.365Z</t>
+  </si>
+  <si>
+    <t>2023-04-17T15:18:00.971Z</t>
+  </si>
+  <si>
+    <t>2023-04-20T18:59:51.241Z</t>
+  </si>
+  <si>
+    <t>2023-04-12T20:57:30.058Z</t>
+  </si>
+  <si>
+    <t>2023-04-18T13:51:56.194Z</t>
+  </si>
+  <si>
+    <t>2023-04-18T14:12:52.457Z</t>
+  </si>
+  <si>
+    <t>2023-04-20T16:38:07.175Z</t>
+  </si>
+  <si>
+    <t>2023-04-25T03:04:07.411Z</t>
+  </si>
+  <si>
+    <t>2023-04-21T19:02:23.154Z</t>
+  </si>
+  <si>
+    <t>2023-04-27T03:56:47.284Z</t>
+  </si>
+  <si>
+    <t>2023-05-01T06:19:23.798Z</t>
+  </si>
+  <si>
+    <t>2023-05-01T00:47:26.804Z</t>
+  </si>
+  <si>
+    <t>2023-04-29T21:45:55.351Z</t>
+  </si>
+  <si>
+    <t>2023-05-01T15:47:35.774Z</t>
+  </si>
+  <si>
+    <t>2023-05-06T15:09:27.627Z</t>
+  </si>
+  <si>
+    <t>2023-05-06T20:36:21.009Z</t>
+  </si>
+  <si>
+    <t>2023-05-15T10:22:09.736Z</t>
+  </si>
+  <si>
+    <t>2023-05-10T16:58:08.913Z</t>
   </si>
 </sst>
 </file>
@@ -810,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +893,7 @@
     <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -864,8 +927,14 @@
       <c r="K1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -899,8 +968,14 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -934,8 +1009,14 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -969,8 +1050,14 @@
       <c r="K4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1004,8 +1091,14 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1039,8 +1132,14 @@
       <c r="K6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1074,8 +1173,14 @@
       <c r="K7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1109,8 +1214,14 @@
       <c r="K8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1144,8 +1255,14 @@
       <c r="K9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1179,8 +1296,14 @@
       <c r="K10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1214,8 +1337,14 @@
       <c r="K11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1249,8 +1378,14 @@
       <c r="K12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1284,8 +1419,14 @@
       <c r="K13" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1319,8 +1460,14 @@
       <c r="K14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1354,8 +1501,14 @@
       <c r="K15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1389,8 +1542,14 @@
       <c r="K16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1424,8 +1583,14 @@
       <c r="K17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1459,8 +1624,14 @@
       <c r="K18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1494,8 +1665,14 @@
       <c r="K19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1528,6 +1705,12 @@
       </c>
       <c r="K20" t="b">
         <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
